--- a/biology/Botanique/Parc_Georges-Pompidou/Parc_Georges-Pompidou.xlsx
+++ b/biology/Botanique/Parc_Georges-Pompidou/Parc_Georges-Pompidou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Georges-Pompidou est un parc urbain de 5,5 hectares d'un seul tenant, situé à Grenoble.
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation et accès
-Le parc, situé au centre du territoire communal grenoblois, aux confins des quartiers Capuche et Alliés-Alpins est essentiellement accessible par la ligne C du tramway de Grenoble (station Foch-Ferrié) ainsi que par diverses lignes d'autobus dont les lignes chrono C3 (arrêts Capuche) et C5 (arrêt MIN) ainsi que les lignes proximo 16 et 25.
-Aménagement
-Le pourtour du parc est réservé aux activités sportives, avec un terrain de basket et un terrain de jeux de boules mais également d'une aire de jeux destinée aux enfants. Un « Handiparc », une aire de jeux aménagé pour les enfants en situation de handicap a été installé dans le parc. Ces enfants peuvent ainsi pratiquer des activités ludiques[1].
+          <t>Situation et accès</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc, situé au centre du territoire communal grenoblois, aux confins des quartiers Capuche et Alliés-Alpins est essentiellement accessible par la ligne C du tramway de Grenoble (station Foch-Ferrié) ainsi que par diverses lignes d'autobus dont les lignes chrono C3 (arrêts Capuche) et C5 (arrêt MIN) ainsi que les lignes proximo 16 et 25.
 </t>
         </is>
       </c>
@@ -545,14 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Historique</t>
+          <t>Situation, accès et aménagement</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un des parcs les plus récents aménagé à Grenoble. Il a été inauguré en 1987 en grande partie sur l'emplacement de l'ancienne caserne de gendarmerie Reyniès-Bayard. 
-L'alignement de platanes qui ombrageait la place d'armes de cette ancienne caserne subsiste toujours et a été le point de départ de la composition paysagère du concepteur Daniel Jarry[2].
-En juin 2023, le parc Georges-Pompidou accueille des stands de la fête des Tuiles, organisé par la ville de Grenoble. A cette occasion, le plasticien Olivier Grossetête fait ériger une œuvre éphémère en carton avec la participation des habitants. Cette construction a été présentée comme une réplique du Palais du Parlement de Grenoble[3].
+          <t>Aménagement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pourtour du parc est réservé aux activités sportives, avec un terrain de basket et un terrain de jeux de boules mais également d'une aire de jeux destinée aux enfants. Un « Handiparc », une aire de jeux aménagé pour les enfants en situation de handicap a été installé dans le parc. Ces enfants peuvent ainsi pratiquer des activités ludiques.
 </t>
         </is>
       </c>
@@ -578,13 +597,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un des parcs les plus récents aménagé à Grenoble. Il a été inauguré en 1987 en grande partie sur l'emplacement de l'ancienne caserne de gendarmerie Reyniès-Bayard. 
+L'alignement de platanes qui ombrageait la place d'armes de cette ancienne caserne subsiste toujours et a été le point de départ de la composition paysagère du concepteur Daniel Jarry.
+En juin 2023, le parc Georges-Pompidou accueille des stands de la fête des Tuiles, organisé par la ville de Grenoble. A cette occasion, le plasticien Olivier Grossetête fait ériger une œuvre éphémère en carton avec la participation des habitants. Cette construction a été présentée comme une réplique du Palais du Parlement de Grenoble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_Georges-Pompidou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Georges-Pompidou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin central composé de rochers artificiels avec une fontaine réalisée par le sculpteur Marc Couturier La mare dite « pédagogique » héberge des carpes koïs et des calicos japonais.
-La flore est variée, cèdres, cyprès d'Italie, pins noirs d'Autriche et des peupliers[4].
+La flore est variée, cèdres, cyprès d'Italie, pins noirs d'Autriche et des peupliers.
 </t>
         </is>
       </c>
